--- a/docs/ST1a/ST1a_08.11.2024_output.xlsx
+++ b/docs/ST1a/ST1a_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731657755.5476518</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731657761.1797447</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731657755.5476518.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731657761.1797447.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>7137</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7122</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>15</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731657766.834213</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731657770.2794886</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731657766.834213.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731657770.2794886.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>7100.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7097</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-3.5</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731657773.5513294</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731657775.4485085</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731657773.5513294.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731657775.4485085.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>7102</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>7096</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-6</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731657775.6689718</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731657776.7402232</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731657775.6689718.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731657776.7402232.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>7098</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>7095</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>3</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731657784.2736542</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731657786.6381004</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657784.2736542.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657786.6381004.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>474</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>475.3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-1.300000000000011</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731657791.7742534</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731657793.8698206</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657791.7742534.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657793.8698206.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>473.65</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>474</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.3500000000000227</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731657793.8867478</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731657795.2085943</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657793.8867478.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657795.2085943.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>474</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>474.2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731657795.2255197</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731657796.6039839</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657795.2255197.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657796.6039839.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>474.2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>474.3</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731657796.6209116</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731657798.9640658</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657796.6209116.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657798.9640658.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>474.3</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>473.9</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.4000000000000341</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731657798.9800253</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731657802.126901</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657798.9800253.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657802.126901.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>473.9</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>474.35</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.4500000000000455</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731657802.1448538</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731657803.8181362</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657802.1448538.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657803.8181362.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>474.35</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>474.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.1499999999999773</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731657804.078732</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731657805.2448337</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657804.078732.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657805.2448337.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>474.65</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>474.4</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.25</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731657805.2617607</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731657806.1155717</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657805.2617607.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657806.1155717.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>474.4</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>474.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731657806.1325092</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731657809.4745564</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657806.1325092.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731657809.4745564.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>474.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>476.3</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-1.800000000000011</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -1267,95 +1367,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731657810.074576</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731657810.074576.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731657810.074576.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>476.3</v>
       </c>
-      <c r="J17" t="n">
-        <v>476.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>474.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-1.800000000000011</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731657821.051454</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731657825.18422</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731657821.051454.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731657825.18422.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>930.6</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>931</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731657825.2011483</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731657827.6205733</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731657825.2011483.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731657827.6205733.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>931</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>930.8</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731657827.6365302</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731657831.4075258</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731657827.6365302.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731657831.4075258.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>930.8</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>934</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-3.200000000000045</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731657831.4666908</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731657832.4632201</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731657831.4666908.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731657832.4632201.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>933.6</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>933.8</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.1999999999999318</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731657835.725096</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731657839.4367669</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731657835.725096.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731657839.4367669.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>933.4</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>931.4</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-2</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731657841.975994</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731657843.4584622</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731657841.975994.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731657843.4584622.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>129.7</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>130.18</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.4800000000000182</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731657843.5153012</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731657845.2613668</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731657843.5153012.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731657845.2613668.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>130.08</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>130.22</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.1399999999999864</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731657848.3194077</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731657849.077061</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731657848.3194077.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731657849.077061.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>129.3</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>129.24</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731657858.5234504</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731657859.9152377</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731657858.5234504.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731657859.9152377.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>130.18</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>130.1</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.08000000000001251</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1779,51 +1939,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731657860.1369634</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731657863.5231647</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731657860.1369634.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731657863.5231647.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>130.1</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>130.12</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1831,51 +1997,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731657865.2219534</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731657867.2537248</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731657865.2219534.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731657867.2537248.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>130.14</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>130.18</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.04000000000002046</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1883,51 +2055,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731657867.2696543</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731657867.5170152</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731657867.2696543.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731657867.5170152.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>130.18</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>129.78</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1935,51 +2113,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731657871.8604527</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731657873.2151237</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731657871.8604527.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731657873.2151237.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>37.945</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>37.92</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.02499999999999858</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -1987,51 +2171,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731657873.588995</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731657876.9120789</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731657873.588995.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731657876.9120789.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>37.95</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>37.785</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.1650000000000063</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -2039,51 +2229,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731657877.447298</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731657878.4092538</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731657877.447298.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731657878.4092538.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>37.795</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>37.765</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2091,51 +2287,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731657878.4261825</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731657880.7491689</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731657878.4261825.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731657880.7491689.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>37.765</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>37.9</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.134999999999998</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -2143,51 +2345,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731657880.7661238</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731657882.703273</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731657880.7661238.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731657882.703273.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>37.9</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>37.89</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2195,51 +2403,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731657882.7202272</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731657886.2643957</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731657882.7202272.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731657886.2643957.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>37.89</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>37.965</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.07500000000000284</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -2247,51 +2461,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731657886.3335214</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731657887.8325403</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731657886.3335214.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731657887.8325403.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>37.955</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>37.965</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.01000000000000512</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2299,51 +2519,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731657887.936607</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731657889.3057566</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731657887.936607.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731657889.3057566.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>37.965</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>37.995</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.02999999999999403</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2351,51 +2577,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731657889.9892838</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731657894.5840998</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731657889.9892838.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731657894.5840998.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>38.03</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>38.01</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.02000000000000313</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2403,51 +2635,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731657900.0268776</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731657903.2263536</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731657900.0268776.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731657903.2263536.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1182.2</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1183.8</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2455,51 +2693,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731657903.2835968</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731657904.3138335</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731657903.2835968.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731657904.3138335.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1184.2</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1183.4</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2507,51 +2751,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731657916.5169055</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731657916.8802726</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731657916.5169055.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731657916.8802726.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1188.6</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1190.8</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2559,95 +2809,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731657921.8498769</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731657921.8498769.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731657921.8498769.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1190</v>
       </c>
-      <c r="J42" t="n">
-        <v>1190</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1190.8</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.7999999999999545</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731657927.1624367</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731657931.4424546</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731657927.1624367.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731657931.4424546.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>78.98</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>78.3</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.6800000000000068</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.86</v>
       </c>
     </row>
@@ -2655,51 +2917,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731657931.4584122</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731657932.6448765</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731657931.4584122.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731657932.6448765.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>78.3</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>78.23</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2707,51 +2975,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731657937.8578343</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731657940.9142396</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731657937.8578343.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731657940.9142396.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>78.36</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>78.54000000000001</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.1800000000000068</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -2759,51 +3033,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731657940.977399</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731657942.0651789</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731657940.977399.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731657942.0651789.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>78.56</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>78.54000000000001</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2811,51 +3091,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731657945.9650514</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731657949.085357</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731657945.9650514.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731657949.085357.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>78.69</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>78.67</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2863,95 +3149,107 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731657949.2689972</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731657949.2689972.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731657949.2689972.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>78.69</v>
       </c>
-      <c r="J48" t="n">
-        <v>78.69</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>78.62</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731657950.5069737</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731657951.3157015</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731657950.5069737.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731657951.3157015.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>103.62</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>103.18</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -2959,51 +3257,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731657952.250127</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731657953.847839</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731657952.250127.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731657953.847839.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>103.49</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>103.4</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.0899999999999892</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3011,51 +3315,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731657958.5669413</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731657959.5060556</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731657958.5669413.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731657959.5060556.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>102.46</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>102.29</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1699999999999875</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3063,51 +3373,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731657964.6513445</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731657967.8761883</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731657964.6513445.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731657967.8761883.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>102.57</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>102.98</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.4100000000000108</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -3115,51 +3431,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731657968.2055209</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731657968.9201286</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731657968.2055209.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731657968.9201286.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>102.79</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>103.05</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3167,51 +3489,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731657972.70083</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731657975.9696832</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731657972.70083.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731657975.9696832.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>103</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>103.24</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.2399999999999949</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3219,51 +3547,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731657977.8403385</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731657978.5644062</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731657977.8403385.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731657978.5644062.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>2752.75</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>2750</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>2.75</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3271,51 +3605,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731657979.9228723</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731657982.4468355</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731657979.9228723.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731657982.4468355.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>2755.05</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>2754.1</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.9500000000002728</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3323,51 +3663,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731657982.5022178</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731657983.6087713</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731657982.5022178.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731657983.6087713.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>2754.4</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>2741.55</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>12.84999999999991</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -3375,51 +3721,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731657990.1210585</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731657992.3517904</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MXI1731657990.1210585.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MXI1731657992.3517904.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>2743.9</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>2744.75</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.8499999999999091</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3427,51 +3779,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731657992.3687446</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731657995.6831274</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MXI1731657992.3687446.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MXI1731657995.6831274.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>2744.75</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>2750.95</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-6.199999999999818</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -3479,51 +3837,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731657995.7000854</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731657996.9462752</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MXI1731657995.7000854.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MXI1731657996.9462752.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>2750.95</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>2749</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-1.949999999999818</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -3531,51 +3895,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731657996.9632328</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731657998.1180215</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MXI1731657996.9632328.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MXI1731657998.1180215.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>2749</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>2747.8</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>1.199999999999818</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3583,51 +3953,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731658000.0769622</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731658001.068162</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MXI1731658000.0769622.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MXI1731658001.068162.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>2749.6</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>2752.35</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>2.75</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3635,51 +4011,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731658003.9780908</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731658004.2799692</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731658003.9780908.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731658004.2799692.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>2747.6</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>2741</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>6.599999999999909</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3687,95 +4069,107 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731658004.9966674</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731658004.9966674.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731658004.9966674.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>2745.15</v>
       </c>
-      <c r="J64" t="n">
-        <v>2745.15</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>2744.45</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7000000000002728</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731658006.627266</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731658010.3666534</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/APTK1731658006.627266.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/APTK1731658010.3666534.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>10.824</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>10.868</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.04400000000000048</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -3783,51 +4177,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731658012.5553887</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731658015.6118698</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/APTK1731658012.5553887.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/APTK1731658015.6118698.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>10.866</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>10.86</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.006000000000000227</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3835,51 +4235,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731658016.8242042</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731658019.6326163</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/APTK1731658016.8242042.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/APTK1731658019.6326163.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>10.862</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>10.856</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.006000000000000227</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3887,51 +4293,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731658020.0625165</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731658021.6404243</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/APTK1731658020.0625165.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/APTK1731658021.6404243.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>10.848</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>10.848</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3939,51 +4351,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731658022.7400334</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731658025.7238004</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/APTK1731658022.7400334.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/APTK1731658025.7238004.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>10.842</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>10.848</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.006000000000000227</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3991,51 +4409,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731658025.7407572</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731658029.0942643</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/APTK1731658025.7407572.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/APTK1731658029.0942643.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>10.848</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>10.842</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.006000000000000227</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -4043,51 +4467,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731658029.110647</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731658030.4365497</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/APTK1731658029.110647.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/APTK1731658030.4365497.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>10.842</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>10.87</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.02799999999999869</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4095,51 +4525,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731658031.4722996</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731658035.6244435</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731658031.4722996.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731658035.6244435.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>481.1</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>481.6</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -4147,51 +4583,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731658035.6414008</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731658039.2258682</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731658035.6414008.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731658039.2258682.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>481.6</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>480.4</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-1.200000000000045</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -4199,51 +4641,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731658039.2838461</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731658040.53889</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731658039.2838461.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731658040.53889.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>480.7</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>480.4</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -4251,51 +4699,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731658043.2170627</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731658044.8215601</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731658043.2170627.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731658044.8215601.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>482.2</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>482.7</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.5</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4303,51 +4757,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731658049.727905</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731658051.1987762</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731658049.727905.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731658051.1987762.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>486.3</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>486.6</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -4355,51 +4815,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731658054.9291732</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731658055.8802876</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731658054.9291732.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731658055.8802876.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>485.4</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>484.9</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.5</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4407,95 +4873,107 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731658057.4968116</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/PIKK1731658057.4968116.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
+          <t>./test_images/PIKK1731658057.4968116.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>484.7</v>
       </c>
-      <c r="J78" t="n">
-        <v>484.7</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>484.2</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731658061.4825003</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731658063.291533</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658061.4825003.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658063.291533.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>575.4</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>576.4</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -4503,51 +4981,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731658078.8918383</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731658079.8293056</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658078.8918383.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658079.8293056.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>580.9</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>583.6</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>2.700000000000045</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -4555,51 +5039,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731658080.9594867</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731658085.077759</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658080.9594867.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658085.077759.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>582.6</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>576.1</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-6.5</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-1.12</v>
       </c>
     </row>
@@ -4661,19 +5151,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.700000000000159</v>
+        <v>-5.500000000000171</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3363636363636509</v>
+        <v>-0.5000000000000155</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.77</v>
+        <v>-1.15</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="3">
@@ -4683,19 +5173,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.89999999999964</v>
+        <v>18.59999999999991</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.789999999999964</v>
+        <v>1.859999999999991</v>
       </c>
       <c r="E3" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -4771,19 +5261,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1000000000000227</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01428571428571753</v>
+        <v>0.05714285714285389</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -4815,19 +5305,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.8300000000000125</v>
+        <v>-0.7600000000000193</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1383333333333354</v>
+        <v>-0.1266666666666699</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.06</v>
+        <v>-0.97</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.18</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="10">
@@ -4859,19 +5349,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.599999999999909</v>
+        <v>3.799999999999955</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>1.149999999999977</v>
+        <v>0.9499999999999886</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12">
